--- a/Searchautomation/src/test/resources/testdata/Book1.xlsx
+++ b/Searchautomation/src/test/resources/testdata/Book1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B158A22B-82CA-4DBC-8880-9B1AC8065D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="20520" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="5070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -36,12 +35,42 @@
   </si>
   <si>
     <t>ang@123</t>
+  </si>
+  <si>
+    <t>angelmarypaul@gmail.com</t>
+  </si>
+  <si>
+    <t>ang123</t>
+  </si>
+  <si>
+    <t>celinejose95@gmail.com</t>
+  </si>
+  <si>
+    <t>cel123</t>
+  </si>
+  <si>
+    <t>lazaraiswarya@gmail.com</t>
+  </si>
+  <si>
+    <t>laz123</t>
+  </si>
+  <si>
+    <t>nannuash491@gmail.com</t>
+  </si>
+  <si>
+    <t>nannu123</t>
+  </si>
+  <si>
+    <t>elsmaryd@gmail.com</t>
+  </si>
+  <si>
+    <t>els123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,23 +208,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -231,23 +243,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,20 +418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -452,7 +447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -460,40 +455,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A5" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="A7" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Searchautomation/src/test/resources/testdata/Book1.xlsx
+++ b/Searchautomation/src/test/resources/testdata/Book1.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
